--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,76 +462,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>26</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4-11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>26</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Go to Profile &gt;</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4-7</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,26 +462,76 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Go to Profile &gt; Settings to update firmware</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4-11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Go to Profile &gt;</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4-7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>
